--- a/Questionares/Internal_Questionare-cvp-2.xlsx
+++ b/Questionares/Internal_Questionare-cvp-2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ashwiny\cjp\Tickets\CVP-2\Canadian Vigilance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ashwiny\cjp\Tickets\CVP-2\cvp -2-deeptanshu-github\cvp-2-dev\Questionares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83AA4C1-13E4-4F23-A028-43202D19D7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915E4DD4-7FC4-43C7-A774-BA3512571F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>Remarks</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>yes the follow the excat same data structure format in every .txt files of the zip file</t>
+  </si>
+  <si>
+    <t>in the output .json, what are the json files which are needed, should it contain nly the new data or should we append to the previous file?</t>
+  </si>
+  <si>
+    <t>in the output .json, should all the old files be retained?</t>
   </si>
 </sst>
 </file>
@@ -845,7 +851,7 @@
   <dimension ref="A1:AU17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,6 +965,25 @@
         <v>58</v>
       </c>
     </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="AU15" s="1" t="s">
         <v>2</v>
@@ -975,7 +1000,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C7">
+  <conditionalFormatting sqref="C2:C9">
     <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
@@ -998,7 +1023,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6 C2:C7" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6 C2:C9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$AU$15:$AU$17</formula1>
     </dataValidation>
   </dataValidations>

--- a/Questionares/Internal_Questionare-cvp-2.xlsx
+++ b/Questionares/Internal_Questionare-cvp-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ashwiny\cjp\Tickets\CVP-2\cvp -2-deeptanshu-github\cvp-2-dev\Questionares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915E4DD4-7FC4-43C7-A774-BA3512571F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A965229-A1EB-4572-A181-77552C68A2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
   <si>
     <t>Remarks</t>
   </si>
@@ -213,6 +213,18 @@
   </si>
   <si>
     <t>in the output .json, should all the old files be retained?</t>
+  </si>
+  <si>
+    <t>should all the generated pdf be saved in s3?</t>
+  </si>
+  <si>
+    <t>only the new data</t>
+  </si>
+  <si>
+    <t>on deletion, all output should be there</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -851,7 +863,7 @@
   <dimension ref="A1:AU17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +985,10 @@
         <v>59</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
@@ -981,7 +996,21 @@
         <v>60</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
@@ -1000,7 +1029,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C9">
+  <conditionalFormatting sqref="C2:C10">
     <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
@@ -1023,7 +1052,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6 C2:C9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6 C2:C10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$AU$15:$AU$17</formula1>
     </dataValidation>
   </dataValidations>
